--- a/Lab7/Lab7BOM.xlsx
+++ b/Lab7/Lab7BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel\Documents\EE445L\Lab7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{931EA7DC-C3BE-4E79-B117-2F0C39AD3F09}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F81676-132E-4D49-A992-939BF4B52A9B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ECE_IT</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="94">
   <si>
     <t>Quantity</t>
   </si>
@@ -383,16 +383,37 @@
   <si>
     <t>Owned</t>
   </si>
+  <si>
+    <t>Raspberry Pi B+</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>RASPBERRY PI FOUNDATION</t>
+  </si>
+  <si>
+    <t>Arducam 5 Megapixels 1080p Sensor OV5647 Mini Camera Video Module for Raspberry Pi Model A/B/B+, Pi 2 and Raspberry Pi 3</t>
+  </si>
+  <si>
+    <t>Arducam</t>
+  </si>
+  <si>
+    <t>B0033</t>
+  </si>
+  <si>
+    <t>OV5647</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -481,6 +502,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -513,10 +540,10 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -526,7 +553,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -535,7 +562,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -549,12 +576,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -958,11 +988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -971,7 +1001,7 @@
     <col min="2" max="2" width="11.36328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.453125" style="3" customWidth="1"/>
     <col min="4" max="4" width="49" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" style="3" customWidth="1"/>
     <col min="6" max="6" width="23.36328125" style="3" customWidth="1"/>
     <col min="7" max="7" width="18" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.6328125" style="3" customWidth="1"/>
@@ -1270,7 +1300,7 @@
         <v>53</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" ref="J11:J12" si="1">A11*I11</f>
+        <f t="shared" ref="J11:J16" si="1">A11*I11</f>
         <v>53</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -1342,7 +1372,8 @@
         <v>3.5</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>3.5</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>80</v>
@@ -1383,7 +1414,8 @@
         <v>5.18</v>
       </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.18</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>75</v>
@@ -1395,30 +1427,104 @@
         <v>76</v>
       </c>
     </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="2">
+        <v>35</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="42" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="2">
+        <v>13.49</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="1"/>
+        <v>13.49</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:J9">
+  <autoFilter ref="A5:J9" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A6:J10">
       <sortCondition ref="C5:C9"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" location="common_component_prefixes" display="Reference Designator"/>
-    <hyperlink ref="M7" r:id="rId2"/>
-    <hyperlink ref="M8" r:id="rId3"/>
-    <hyperlink ref="M12" r:id="rId4"/>
-    <hyperlink ref="L12" r:id="rId5"/>
-    <hyperlink ref="M13" r:id="rId6"/>
+    <hyperlink ref="B4" r:id="rId1" location="common_component_prefixes" display="Reference Designator" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M15" r:id="rId7" xr:uid="{F1833179-DB1A-4BD0-AB75-58E7CB2DBE4C}"/>
+    <hyperlink ref="M16" r:id="rId8" xr:uid="{1932CE42-3BFA-455A-8604-D8352B959424}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId7"/>
+  <pageSetup orientation="landscape" r:id="rId9"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId8"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Lab7/Lab7BOM.xlsx
+++ b/Lab7/Lab7BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel\Documents\EE445L\Lab7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F81676-132E-4D49-A992-939BF4B52A9B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349B8E4A-C9A7-4FC5-A7FB-265DA9687F52}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>Quantity</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>OV5647</t>
+  </si>
+  <si>
+    <t>total cost</t>
   </si>
 </sst>
 </file>
@@ -989,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1497,6 +1500,15 @@
       </c>
       <c r="M16" s="14" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="2">
+        <f>SUM(J6:J16)</f>
+        <v>133.84</v>
       </c>
     </row>
   </sheetData>
